--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43097,6 +43097,41 @@
         <v>35500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>60900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43132,6 +43132,41 @@
         <v>60900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>78800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43167,6 +43167,41 @@
         <v>78800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>50900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43202,6 +43202,41 @@
         <v>50900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>22500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,41 @@
         <v>22500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>146300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43272,6 +43272,41 @@
         <v>146300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>256100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,41 @@
         <v>256100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>17400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43342,6 +43342,41 @@
         <v>17400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>451200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43377,6 +43377,41 @@
         <v>451200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>14700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,41 @@
         <v>14700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>172000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,41 @@
         <v>172000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>85800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,41 @@
         <v>85800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>60700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,76 @@
         <v>60700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>383100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>416100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,76 @@
         <v>416100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>189900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,41 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>421800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,41 @@
         <v>421800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>14100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43727,6 +43727,41 @@
         <v>14100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>31800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43762,6 +43762,41 @@
         <v>31800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>365500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,76 @@
         <v>365500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>73300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43867,6 +43867,41 @@
         <v>73300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>357500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,41 @@
         <v>357500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>182900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75367,6 +75367,41 @@
         <v>182900</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>433800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75402,6 +75402,41 @@
         <v>433800</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>84600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75437,6 +75437,41 @@
         <v>84600</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2142"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75472,6 +75472,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>301700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75507,6 +75507,41 @@
         <v>301700</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>425600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75542,6 +75542,41 @@
         <v>425600</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>41300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2145"/>
+  <dimension ref="A1:I2146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75577,6 +75577,41 @@
         <v>41300</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>149100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2146"/>
+  <dimension ref="A1:I2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75612,6 +75612,41 @@
         <v>149100</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>115400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2147"/>
+  <dimension ref="A1:I2148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75647,6 +75647,41 @@
         <v>115400</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>19900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2148"/>
+  <dimension ref="A1:I2149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75682,6 +75682,41 @@
         <v>19900</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>134100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2149"/>
+  <dimension ref="A1:I2150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75717,6 +75717,41 @@
         <v>134100</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>81800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2150"/>
+  <dimension ref="A1:I2151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75752,6 +75752,41 @@
         <v>81800</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>335000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2151"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75787,6 +75787,41 @@
         <v>335000</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>261200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2152"/>
+  <dimension ref="A1:I2153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75822,6 +75822,41 @@
         <v>261200</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>44700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2153"/>
+  <dimension ref="A1:I2154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75857,6 +75857,41 @@
         <v>44700</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>406900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90137,6 +90137,41 @@
         <v>406900</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>475800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90172,6 +90172,41 @@
         <v>475800</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>188500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90207,6 +90207,41 @@
         <v>188500</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>186100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90242,6 +90242,41 @@
         <v>186100</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>149200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90277,6 +90277,41 @@
         <v>149200</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>98400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90312,6 +90312,41 @@
         <v>98400</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>131600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90347,6 +90347,41 @@
         <v>131600</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>119000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90382,6 +90382,41 @@
         <v>119000</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>273400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90417,6 +90417,41 @@
         <v>273400</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>124800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90452,6 +90452,41 @@
         <v>124800</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>570400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90487,6 +90487,76 @@
         <v>570400</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>183800</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>156300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90557,6 +90557,41 @@
         <v>156300</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>62700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90592,6 +90592,111 @@
         <v>62700</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>246700</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>68900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2577"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90697,6 +90697,41 @@
         <v>68900</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>98900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90732,6 +90732,41 @@
         <v>98900</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>166500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7216.xlsx
+++ b/data/7216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2579"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90767,6 +90767,111 @@
         <v>166500</v>
       </c>
     </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2580" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2580" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2580" t="n">
+        <v>67400</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>106900</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>KAWAN</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>411000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
